--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H2">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I2">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J2">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.73680229749199</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N2">
-        <v>1.73680229749199</v>
+        <v>2.951542</v>
       </c>
       <c r="O2">
-        <v>0.005637604245418366</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P2">
-        <v>0.005637604245418366</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q2">
-        <v>36.27118200438675</v>
+        <v>50.28305358936689</v>
       </c>
       <c r="R2">
-        <v>36.27118200438675</v>
+        <v>452.5474823043021</v>
       </c>
       <c r="S2">
-        <v>6.811764114985105E-05</v>
+        <v>8.711221298779219E-05</v>
       </c>
       <c r="T2">
-        <v>6.811764114985105E-05</v>
+        <v>8.71122129877922E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H3">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I3">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J3">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>66.25474500985931</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N3">
-        <v>66.25474500985931</v>
+        <v>5.3792</v>
       </c>
       <c r="O3">
-        <v>0.2150607655724942</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P3">
-        <v>0.2150607655724942</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q3">
-        <v>1383.6565729888</v>
+        <v>91.64111568391111</v>
       </c>
       <c r="R3">
-        <v>1383.6565729888</v>
+        <v>824.7700411552</v>
       </c>
       <c r="S3">
-        <v>0.002598520828521241</v>
+        <v>0.0001587624421756261</v>
       </c>
       <c r="T3">
-        <v>0.002598520828521241</v>
+        <v>0.0001587624421756261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H4">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I4">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J4">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>92.69930650757991</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N4">
-        <v>92.69930650757991</v>
+        <v>233.556772</v>
       </c>
       <c r="O4">
-        <v>0.300898959351406</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P4">
-        <v>0.300898959351406</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q4">
-        <v>1935.92179309768</v>
+        <v>3978.919386082104</v>
       </c>
       <c r="R4">
-        <v>1935.92179309768</v>
+        <v>35810.27447473893</v>
       </c>
       <c r="S4">
-        <v>0.003635680413736038</v>
+        <v>0.006893226410874457</v>
       </c>
       <c r="T4">
-        <v>0.003635680413736038</v>
+        <v>0.006893226410874458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H5">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I5">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J5">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>147.383679601187</v>
+        <v>92.92262766666668</v>
       </c>
       <c r="N5">
-        <v>147.383679601187</v>
+        <v>278.767883</v>
       </c>
       <c r="O5">
-        <v>0.4784026708306816</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="P5">
-        <v>0.4784026708306816</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="Q5">
-        <v>3077.944032553613</v>
+        <v>4749.144819854626</v>
       </c>
       <c r="R5">
-        <v>3077.944032553613</v>
+        <v>42742.30337869163</v>
       </c>
       <c r="S5">
-        <v>0.005780409556640731</v>
+        <v>0.008227593304805398</v>
       </c>
       <c r="T5">
-        <v>0.005780409556640731</v>
+        <v>0.0082275933048054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1522.98205624632</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H6">
-        <v>1522.98205624632</v>
+        <v>153.325781</v>
       </c>
       <c r="I6">
-        <v>0.8811472246672065</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J6">
-        <v>0.8811472246672065</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73680229749199</v>
+        <v>150.2174506666667</v>
       </c>
       <c r="N6">
-        <v>1.73680229749199</v>
+        <v>450.652352</v>
       </c>
       <c r="O6">
-        <v>0.005637604245418366</v>
+        <v>0.4639645390083261</v>
       </c>
       <c r="P6">
-        <v>0.005637604245418366</v>
+        <v>0.4639645390083262</v>
       </c>
       <c r="Q6">
-        <v>2645.118734327684</v>
+        <v>7677.402647765214</v>
       </c>
       <c r="R6">
-        <v>2645.118734327684</v>
+        <v>69096.62382988691</v>
       </c>
       <c r="S6">
-        <v>0.004967559334622455</v>
+        <v>0.01330061495681698</v>
       </c>
       <c r="T6">
-        <v>0.004967559334622455</v>
+        <v>0.01330061495681698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H7">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I7">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J7">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>66.25474500985931</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N7">
-        <v>66.25474500985931</v>
+        <v>2.951542</v>
       </c>
       <c r="O7">
-        <v>0.2150607655724942</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P7">
-        <v>0.2150607655724942</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q7">
-        <v>100904.7877911911</v>
+        <v>1498.605817849922</v>
       </c>
       <c r="R7">
-        <v>100904.7877911911</v>
+        <v>13487.4523606493</v>
       </c>
       <c r="S7">
-        <v>0.1895001967190079</v>
+        <v>0.0025962398834285</v>
       </c>
       <c r="T7">
-        <v>0.1895001967190079</v>
+        <v>0.0025962398834285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H8">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I8">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J8">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>92.69930650757991</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N8">
-        <v>92.69930650757991</v>
+        <v>5.3792</v>
       </c>
       <c r="O8">
-        <v>0.300898959351406</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P8">
-        <v>0.300898959351406</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q8">
-        <v>141179.3804375219</v>
+        <v>2731.216569297777</v>
       </c>
       <c r="R8">
-        <v>141179.3804375219</v>
+        <v>24580.94912368</v>
       </c>
       <c r="S8">
-        <v>0.2651362829377419</v>
+        <v>0.004731660122383007</v>
       </c>
       <c r="T8">
-        <v>0.2651362829377419</v>
+        <v>0.004731660122383008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H9">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I9">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J9">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>147.383679601187</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N9">
-        <v>147.383679601187</v>
+        <v>233.556772</v>
       </c>
       <c r="O9">
-        <v>0.4784026708306816</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P9">
-        <v>0.4784026708306816</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q9">
-        <v>224462.6994161646</v>
+        <v>118585.3148345671</v>
       </c>
       <c r="R9">
-        <v>224462.6994161646</v>
+        <v>1067267.833511104</v>
       </c>
       <c r="S9">
-        <v>0.4215431856758342</v>
+        <v>0.2054415646164671</v>
       </c>
       <c r="T9">
-        <v>0.4215431856758342</v>
+        <v>0.2054415646164672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21520509437791</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H10">
-        <v>1.21520509437791</v>
+        <v>4569.62915</v>
       </c>
       <c r="I10">
-        <v>0.0007030776179672626</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J10">
-        <v>0.0007030776179672626</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.73680229749199</v>
+        <v>92.92262766666668</v>
       </c>
       <c r="N10">
-        <v>1.73680229749199</v>
+        <v>278.767883</v>
       </c>
       <c r="O10">
-        <v>0.005637604245418366</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="P10">
-        <v>0.005637604245418366</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="Q10">
-        <v>2.110570999839525</v>
+        <v>141540.6493600655</v>
       </c>
       <c r="R10">
-        <v>2.110570999839525</v>
+        <v>1273865.84424059</v>
       </c>
       <c r="S10">
-        <v>3.963673363910872E-06</v>
+        <v>0.2452102311481693</v>
       </c>
       <c r="T10">
-        <v>3.963673363910872E-06</v>
+        <v>0.2452102311481693</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.21520509437791</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H11">
-        <v>1.21520509437791</v>
+        <v>4569.62915</v>
       </c>
       <c r="I11">
-        <v>0.0007030776179672626</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J11">
-        <v>0.0007030776179672626</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.25474500985931</v>
+        <v>150.2174506666667</v>
       </c>
       <c r="N11">
-        <v>66.25474500985931</v>
+        <v>450.652352</v>
       </c>
       <c r="O11">
-        <v>0.2150607655724942</v>
+        <v>0.4639645390083261</v>
       </c>
       <c r="P11">
-        <v>0.2150607655724942</v>
+        <v>0.4639645390083262</v>
       </c>
       <c r="Q11">
-        <v>80.51310366269044</v>
+        <v>228812.6804683623</v>
       </c>
       <c r="R11">
-        <v>80.51310366269044</v>
+        <v>2059314.124215261</v>
       </c>
       <c r="S11">
-        <v>0.0001512044107769251</v>
+        <v>0.396403510376359</v>
       </c>
       <c r="T11">
-        <v>0.0001512044107769251</v>
+        <v>0.396403510376359</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.21520509437791</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H12">
-        <v>1.21520509437791</v>
+        <v>5.517497</v>
       </c>
       <c r="I12">
-        <v>0.0007030776179672626</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J12">
-        <v>0.0007030776179672626</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>92.69930650757991</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N12">
-        <v>92.69930650757991</v>
+        <v>2.951542</v>
       </c>
       <c r="O12">
-        <v>0.300898959351406</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P12">
-        <v>0.300898959351406</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q12">
-        <v>112.6486695133105</v>
+        <v>1.809458236708222</v>
       </c>
       <c r="R12">
-        <v>112.6486695133105</v>
+        <v>16.285124130374</v>
       </c>
       <c r="S12">
-        <v>0.0002115553235896147</v>
+        <v>3.134772056523908E-06</v>
       </c>
       <c r="T12">
-        <v>0.0002115553235896147</v>
+        <v>3.134772056523909E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.21520509437791</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H13">
-        <v>1.21520509437791</v>
+        <v>5.517497</v>
       </c>
       <c r="I13">
-        <v>0.0007030776179672626</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J13">
-        <v>0.0007030776179672626</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.383679601187</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N13">
-        <v>147.383679601187</v>
+        <v>5.3792</v>
       </c>
       <c r="O13">
-        <v>0.4784026708306816</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P13">
-        <v>0.4784026708306816</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q13">
-        <v>179.1013982795241</v>
+        <v>3.297746651377777</v>
       </c>
       <c r="R13">
-        <v>179.1013982795241</v>
+        <v>29.6797198624</v>
       </c>
       <c r="S13">
-        <v>0.000336354210236812</v>
+        <v>5.713137690892897E-06</v>
       </c>
       <c r="T13">
-        <v>0.000336354210236812</v>
+        <v>5.713137690892899E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.08207258961548</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H14">
-        <v>6.08207258961548</v>
+        <v>5.517497</v>
       </c>
       <c r="I14">
-        <v>0.003518886752857052</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J14">
-        <v>0.003518886752857052</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.73680229749199</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N14">
-        <v>1.73680229749199</v>
+        <v>233.556772</v>
       </c>
       <c r="O14">
-        <v>0.005637604245418366</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P14">
-        <v>0.005637604245418366</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q14">
-        <v>10.56335764715722</v>
+        <v>143.1831987599649</v>
       </c>
       <c r="R14">
-        <v>10.56335764715722</v>
+        <v>1288.648788839684</v>
       </c>
       <c r="S14">
-        <v>1.983809089705337E-05</v>
+        <v>0.0002480558441917904</v>
       </c>
       <c r="T14">
-        <v>1.983809089705337E-05</v>
+        <v>0.0002480558441917905</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.08207258961548</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H15">
-        <v>6.08207258961548</v>
+        <v>5.517497</v>
       </c>
       <c r="I15">
-        <v>0.003518886752857052</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J15">
-        <v>0.003518886752857052</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>66.25474500985931</v>
+        <v>92.92262766666668</v>
       </c>
       <c r="N15">
-        <v>66.25474500985931</v>
+        <v>278.767883</v>
       </c>
       <c r="O15">
-        <v>0.2150607655724942</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="P15">
-        <v>0.2150607655724942</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="Q15">
-        <v>402.9661685564283</v>
+        <v>170.9001064609835</v>
       </c>
       <c r="R15">
-        <v>402.9661685564283</v>
+        <v>1538.100958148851</v>
       </c>
       <c r="S15">
-        <v>0.0007567744790323457</v>
+        <v>0.0002960736353691481</v>
       </c>
       <c r="T15">
-        <v>0.0007567744790323457</v>
+        <v>0.0002960736353691482</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.08207258961548</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H16">
-        <v>6.08207258961548</v>
+        <v>5.517497</v>
       </c>
       <c r="I16">
-        <v>0.003518886752857052</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J16">
-        <v>0.003518886752857052</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>92.69930650757991</v>
+        <v>150.2174506666667</v>
       </c>
       <c r="N16">
-        <v>92.69930650757991</v>
+        <v>450.652352</v>
       </c>
       <c r="O16">
-        <v>0.300898959351406</v>
+        <v>0.4639645390083261</v>
       </c>
       <c r="P16">
-        <v>0.300898959351406</v>
+        <v>0.4639645390083262</v>
       </c>
       <c r="Q16">
-        <v>563.8039111861157</v>
+        <v>276.2747778003271</v>
       </c>
       <c r="R16">
-        <v>563.8039111861157</v>
+        <v>2486.473000202944</v>
       </c>
       <c r="S16">
-        <v>0.001058829362010135</v>
+        <v>0.0004786285949027241</v>
       </c>
       <c r="T16">
-        <v>0.001058829362010135</v>
+        <v>0.0004786285949027242</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.08207258961548</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H17">
-        <v>6.08207258961548</v>
+        <v>25.491179</v>
       </c>
       <c r="I17">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J17">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>147.383679601187</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N17">
-        <v>147.383679601187</v>
+        <v>2.951542</v>
       </c>
       <c r="O17">
-        <v>0.4784026708306816</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P17">
-        <v>0.4784026708306816</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q17">
-        <v>896.3982378590496</v>
+        <v>8.359809494224223</v>
       </c>
       <c r="R17">
-        <v>896.3982378590496</v>
+        <v>75.238285448018</v>
       </c>
       <c r="S17">
-        <v>0.001683444820917518</v>
+        <v>1.448284169743075E-05</v>
       </c>
       <c r="T17">
-        <v>0.001683444820917518</v>
+        <v>1.448284169743075E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,57 +1529,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.901845975473297</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H18">
-        <v>0.901845975473297</v>
+        <v>25.491179</v>
       </c>
       <c r="I18">
-        <v>0.0005217783591778975</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J18">
-        <v>0.0005217783591778975</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.73680229749199</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N18">
-        <v>1.73680229749199</v>
+        <v>5.3792</v>
       </c>
       <c r="O18">
-        <v>0.005637604245418366</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P18">
-        <v>0.005637604245418366</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q18">
-        <v>1.566328162185927</v>
+        <v>15.23579445297778</v>
       </c>
       <c r="R18">
-        <v>1.566328162185927</v>
+        <v>137.1221500768</v>
       </c>
       <c r="S18">
-        <v>2.941579892868744E-06</v>
+        <v>2.639505114913475E-05</v>
       </c>
       <c r="T18">
-        <v>2.941579892868744E-06</v>
+        <v>2.639505114913475E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.901845975473297</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H19">
-        <v>0.901845975473297</v>
+        <v>25.491179</v>
       </c>
       <c r="I19">
-        <v>0.0005217783591778975</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J19">
-        <v>0.0005217783591778975</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.25474500985931</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N19">
-        <v>66.25474500985931</v>
+        <v>233.556772</v>
       </c>
       <c r="O19">
-        <v>0.2150607655724942</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P19">
-        <v>0.2150607655724942</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q19">
-        <v>59.75157514315112</v>
+        <v>661.5152757460208</v>
       </c>
       <c r="R19">
-        <v>59.75157514315112</v>
+        <v>5953.637481714188</v>
       </c>
       <c r="S19">
-        <v>0.0001122140533839585</v>
+        <v>0.001146033414479254</v>
       </c>
       <c r="T19">
-        <v>0.0001122140533839585</v>
+        <v>0.001146033414479254</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.901845975473297</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H20">
-        <v>0.901845975473297</v>
+        <v>25.491179</v>
       </c>
       <c r="I20">
-        <v>0.0005217783591778975</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J20">
-        <v>0.0005217783591778975</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>92.69930650757991</v>
+        <v>92.92262766666668</v>
       </c>
       <c r="N20">
-        <v>92.69930650757991</v>
+        <v>278.767883</v>
       </c>
       <c r="O20">
-        <v>0.300898959351406</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="P20">
-        <v>0.300898959351406</v>
+        <v>0.287002634630479</v>
       </c>
       <c r="Q20">
-        <v>83.60049650302655</v>
+        <v>789.5691116671176</v>
       </c>
       <c r="R20">
-        <v>83.60049650302655</v>
+        <v>7106.122005004057</v>
       </c>
       <c r="S20">
-        <v>0.0001570025652887135</v>
+        <v>0.001367878593568005</v>
       </c>
       <c r="T20">
-        <v>0.0001570025652887135</v>
+        <v>0.001367878593568005</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.901845975473297</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H21">
-        <v>0.901845975473297</v>
+        <v>25.491179</v>
       </c>
       <c r="I21">
-        <v>0.0005217783591778975</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J21">
-        <v>0.0005217783591778975</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>147.383679601187</v>
+        <v>150.2174506666667</v>
       </c>
       <c r="N21">
-        <v>147.383679601187</v>
+        <v>450.652352</v>
       </c>
       <c r="O21">
-        <v>0.4784026708306816</v>
+        <v>0.4639645390083261</v>
       </c>
       <c r="P21">
-        <v>0.4784026708306816</v>
+        <v>0.4639645390083262</v>
       </c>
       <c r="Q21">
-        <v>132.9173782987764</v>
+        <v>1276.406641289223</v>
       </c>
       <c r="R21">
-        <v>132.9173782987764</v>
+        <v>11487.65977160301</v>
       </c>
       <c r="S21">
-        <v>0.0002496201606123568</v>
+        <v>0.00221129385066885</v>
       </c>
       <c r="T21">
-        <v>0.0002496201606123568</v>
+        <v>0.00221129385066885</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>176.343096993437</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H22">
-        <v>176.343096993437</v>
+        <v>4.857967</v>
       </c>
       <c r="I22">
-        <v>0.1020263041627431</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J22">
-        <v>0.1020263041627431</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.73680229749199</v>
+        <v>0.9838473333333334</v>
       </c>
       <c r="N22">
-        <v>1.73680229749199</v>
+        <v>2.951542</v>
       </c>
       <c r="O22">
-        <v>0.005637604245418366</v>
+        <v>0.00303873000399588</v>
       </c>
       <c r="P22">
-        <v>0.005637604245418366</v>
+        <v>0.003038730003995881</v>
       </c>
       <c r="Q22">
-        <v>306.2730960050542</v>
+        <v>1.593165959457111</v>
       </c>
       <c r="R22">
-        <v>306.2730960050542</v>
+        <v>14.338493635114</v>
       </c>
       <c r="S22">
-        <v>0.0005751839254922262</v>
+        <v>2.76005935356472E-06</v>
       </c>
       <c r="T22">
-        <v>0.0005751839254922262</v>
+        <v>2.760059353564721E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>176.343096993437</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H23">
-        <v>176.343096993437</v>
+        <v>4.857967</v>
       </c>
       <c r="I23">
-        <v>0.1020263041627431</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J23">
-        <v>0.1020263041627431</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>66.25474500985931</v>
+        <v>1.793066666666667</v>
       </c>
       <c r="N23">
-        <v>66.25474500985931</v>
+        <v>5.3792</v>
       </c>
       <c r="O23">
-        <v>0.2150607655724942</v>
+        <v>0.005538100571665468</v>
       </c>
       <c r="P23">
-        <v>0.2150607655724942</v>
+        <v>0.005538100571665469</v>
       </c>
       <c r="Q23">
-        <v>11683.56692554906</v>
+        <v>2.903552898488889</v>
       </c>
       <c r="R23">
-        <v>11683.56692554906</v>
+        <v>26.1319760864</v>
       </c>
       <c r="S23">
-        <v>0.02194185508177169</v>
+        <v>5.030221922878056E-06</v>
       </c>
       <c r="T23">
-        <v>0.02194185508177169</v>
+        <v>5.030221922878057E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>176.343096993437</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H24">
-        <v>176.343096993437</v>
+        <v>4.857967</v>
       </c>
       <c r="I24">
-        <v>0.1020263041627431</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J24">
-        <v>0.1020263041627431</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>92.69930650757991</v>
+        <v>77.85225733333333</v>
       </c>
       <c r="N24">
-        <v>92.69930650757991</v>
+        <v>233.556772</v>
       </c>
       <c r="O24">
-        <v>0.300898959351406</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="P24">
-        <v>0.300898959351406</v>
+        <v>0.2404559957855334</v>
       </c>
       <c r="Q24">
-        <v>16346.88279869051</v>
+        <v>126.0678990002804</v>
       </c>
       <c r="R24">
-        <v>16346.88279869051</v>
+        <v>1134.611091002524</v>
       </c>
       <c r="S24">
-        <v>0.03069960874903943</v>
+        <v>0.0002184046688635915</v>
       </c>
       <c r="T24">
-        <v>0.03069960874903943</v>
+        <v>0.0002184046688635916</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.619322333333334</v>
+      </c>
+      <c r="H25">
+        <v>4.857967</v>
+      </c>
+      <c r="I25">
+        <v>0.0009082937114963446</v>
+      </c>
+      <c r="J25">
+        <v>0.0009082937114963446</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>92.92262766666668</v>
+      </c>
+      <c r="N25">
+        <v>278.767883</v>
+      </c>
+      <c r="O25">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="P25">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="Q25">
+        <v>150.4716862526513</v>
+      </c>
+      <c r="R25">
+        <v>1354.245176273861</v>
+      </c>
+      <c r="S25">
+        <v>0.0002606826882177471</v>
+      </c>
+      <c r="T25">
+        <v>0.0002606826882177472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.619322333333334</v>
+      </c>
+      <c r="H26">
+        <v>4.857967</v>
+      </c>
+      <c r="I26">
+        <v>0.0009082937114963446</v>
+      </c>
+      <c r="J26">
+        <v>0.0009082937114963446</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>150.2174506666667</v>
+      </c>
+      <c r="N26">
+        <v>450.652352</v>
+      </c>
+      <c r="O26">
+        <v>0.4639645390083261</v>
+      </c>
+      <c r="P26">
+        <v>0.4639645390083262</v>
+      </c>
+      <c r="Q26">
+        <v>243.2504727209316</v>
+      </c>
+      <c r="R26">
+        <v>2189.254254488384</v>
+      </c>
+      <c r="S26">
+        <v>0.0004214160731385631</v>
+      </c>
+      <c r="T26">
+        <v>0.0004214160731385632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>196.5440926666667</v>
+      </c>
+      <c r="H27">
+        <v>589.632278</v>
+      </c>
+      <c r="I27">
+        <v>0.1102435010782627</v>
+      </c>
+      <c r="J27">
+        <v>0.1102435010782627</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.9838473333333334</v>
+      </c>
+      <c r="N27">
+        <v>2.951542</v>
+      </c>
+      <c r="O27">
+        <v>0.00303873000399588</v>
+      </c>
+      <c r="P27">
+        <v>0.003038730003995881</v>
+      </c>
+      <c r="Q27">
+        <v>193.3693814525196</v>
+      </c>
+      <c r="R27">
+        <v>1740.324433072676</v>
+      </c>
+      <c r="S27">
+        <v>0.0003350002344720689</v>
+      </c>
+      <c r="T27">
+        <v>0.0003350002344720689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>196.5440926666667</v>
+      </c>
+      <c r="H28">
+        <v>589.632278</v>
+      </c>
+      <c r="I28">
+        <v>0.1102435010782627</v>
+      </c>
+      <c r="J28">
+        <v>0.1102435010782627</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.793066666666667</v>
+      </c>
+      <c r="N28">
+        <v>5.3792</v>
+      </c>
+      <c r="O28">
+        <v>0.005538100571665468</v>
+      </c>
+      <c r="P28">
+        <v>0.005538100571665469</v>
+      </c>
+      <c r="Q28">
+        <v>352.4166610908445</v>
+      </c>
+      <c r="R28">
+        <v>3171.7499498176</v>
+      </c>
+      <c r="S28">
+        <v>0.0006105395963439291</v>
+      </c>
+      <c r="T28">
+        <v>0.0006105395963439292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>196.5440926666667</v>
+      </c>
+      <c r="H29">
+        <v>589.632278</v>
+      </c>
+      <c r="I29">
+        <v>0.1102435010782627</v>
+      </c>
+      <c r="J29">
+        <v>0.1102435010782627</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>77.85225733333333</v>
+      </c>
+      <c r="N29">
+        <v>233.556772</v>
+      </c>
+      <c r="O29">
+        <v>0.2404559957855334</v>
+      </c>
+      <c r="P29">
+        <v>0.2404559957855334</v>
+      </c>
+      <c r="Q29">
+        <v>15301.40127963185</v>
+      </c>
+      <c r="R29">
+        <v>137712.6115166866</v>
+      </c>
+      <c r="S29">
+        <v>0.02650871083065717</v>
+      </c>
+      <c r="T29">
+        <v>0.02650871083065718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>196.5440926666667</v>
+      </c>
+      <c r="H30">
+        <v>589.632278</v>
+      </c>
+      <c r="I30">
+        <v>0.1102435010782627</v>
+      </c>
+      <c r="J30">
+        <v>0.1102435010782627</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>92.92262766666668</v>
+      </c>
+      <c r="N30">
+        <v>278.767883</v>
+      </c>
+      <c r="O30">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="P30">
+        <v>0.287002634630479</v>
+      </c>
+      <c r="Q30">
+        <v>18263.3935429475</v>
+      </c>
+      <c r="R30">
+        <v>164370.5418865275</v>
+      </c>
+      <c r="S30">
+        <v>0.03164017526034943</v>
+      </c>
+      <c r="T30">
+        <v>0.03164017526034944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>176.343096993437</v>
-      </c>
-      <c r="H25">
-        <v>176.343096993437</v>
-      </c>
-      <c r="I25">
-        <v>0.1020263041627431</v>
-      </c>
-      <c r="J25">
-        <v>0.1020263041627431</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>147.383679601187</v>
-      </c>
-      <c r="N25">
-        <v>147.383679601187</v>
-      </c>
-      <c r="O25">
-        <v>0.4784026708306816</v>
-      </c>
-      <c r="P25">
-        <v>0.4784026708306816</v>
-      </c>
-      <c r="Q25">
-        <v>25990.09450716176</v>
-      </c>
-      <c r="R25">
-        <v>25990.09450716176</v>
-      </c>
-      <c r="S25">
-        <v>0.0488096564064398</v>
-      </c>
-      <c r="T25">
-        <v>0.0488096564064398</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>196.5440926666667</v>
+      </c>
+      <c r="H31">
+        <v>589.632278</v>
+      </c>
+      <c r="I31">
+        <v>0.1102435010782627</v>
+      </c>
+      <c r="J31">
+        <v>0.1102435010782627</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>150.2174506666667</v>
+      </c>
+      <c r="N31">
+        <v>450.652352</v>
+      </c>
+      <c r="O31">
+        <v>0.4639645390083261</v>
+      </c>
+      <c r="P31">
+        <v>0.4639645390083262</v>
+      </c>
+      <c r="Q31">
+        <v>29524.35254397976</v>
+      </c>
+      <c r="R31">
+        <v>265719.1728958179</v>
+      </c>
+      <c r="S31">
+        <v>0.05114907515644004</v>
+      </c>
+      <c r="T31">
+        <v>0.05114907515644004</v>
       </c>
     </row>
   </sheetData>
